--- a/Base/Teams/Broncos/Players Data.xlsx
+++ b/Base/Teams/Broncos/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +41,9 @@
     <t>J.Williams</t>
   </si>
   <si>
+    <t>M.Boone</t>
+  </si>
+  <si>
     <t>D.Crockett</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
   </si>
   <si>
     <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>M.Boone</t>
   </si>
   <si>
     <t>C.Sutton</t>
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,13 +481,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
         <v>8</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -518,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,16 +538,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -558,16 +558,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,15 +578,35 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
     </row>
@@ -608,22 +628,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -660,22 +680,22 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -683,13 +703,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,13 +732,13 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -735,19 +755,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -764,13 +784,13 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -816,10 +836,10 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -842,10 +862,10 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -868,10 +888,10 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -880,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>2</v>

--- a/Base/Teams/Broncos/Players Data.xlsx
+++ b/Base/Teams/Broncos/Players Data.xlsx
@@ -498,16 +498,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -518,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -680,10 +680,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -692,10 +692,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -732,13 +732,13 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -758,16 +758,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -784,22 +784,22 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -810,7 +810,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -862,16 +862,16 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -888,10 +888,10 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -900,10 +900,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/Base/Teams/Broncos/Players Data.xlsx
+++ b/Base/Teams/Broncos/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>T.Bridgewater</t>
+  </si>
+  <si>
+    <t>D.Lock</t>
   </si>
   <si>
     <t>M.Gordon</t>
@@ -447,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -498,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -518,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -558,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,16 +581,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,15 +601,35 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
     </row>
@@ -628,22 +651,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -651,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -677,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -703,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -729,16 +752,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -755,16 +778,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>57</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>16</v>
@@ -781,19 +804,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -807,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -833,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -859,19 +882,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -885,19 +908,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -911,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>11</v>

--- a/Base/Teams/Broncos/Players Data.xlsx
+++ b/Base/Teams/Broncos/Players Data.xlsx
@@ -32,10 +32,10 @@
     <t>RZATT</t>
   </si>
   <si>
+    <t>D.Lock</t>
+  </si>
+  <si>
     <t>T.Bridgewater</t>
-  </si>
-  <si>
-    <t>D.Lock</t>
   </si>
   <si>
     <t>M.Gordon</t>
@@ -481,16 +481,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -501,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -541,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -703,10 +703,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -755,13 +755,13 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -781,16 +781,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -807,13 +807,13 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -885,16 +885,16 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -917,7 +917,7 @@
         <v>29</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>3</v>

--- a/Base/Teams/Broncos/Players Data.xlsx
+++ b/Base/Teams/Broncos/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>K.Hinton</t>
+  </si>
+  <si>
+    <t>S.Williams</t>
   </si>
   <si>
     <t>N.Fant</t>
@@ -484,10 +487,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -521,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -640,7 +643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -677,22 +680,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -703,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -755,16 +758,16 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -859,22 +862,22 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -885,22 +888,22 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -911,22 +914,22 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -937,21 +940,47 @@
         <v>25</v>
       </c>
       <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
         <v>8</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Broncos/Players Data.xlsx
+++ b/Base/Teams/Broncos/Players Data.xlsx
@@ -487,13 +487,13 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
         <v>2</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D4">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -680,10 +680,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -758,10 +758,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>34</v>
@@ -784,16 +784,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -810,19 +810,19 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -914,10 +914,10 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>14</v>
@@ -926,7 +926,7 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>11</v>
